--- a/downloads/Consumos medidos 2024-02 2024-02.xlsx
+++ b/downloads/Consumos medidos 2024-02 2024-02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Unidad kWh</t>
   </si>
@@ -142,6 +142,51 @@
   </si>
   <si>
     <t>13/02/2024</t>
+  </si>
+  <si>
+    <t>14/02/2024</t>
+  </si>
+  <si>
+    <t>15/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>17/02/2024</t>
+  </si>
+  <si>
+    <t>18/02/2024</t>
+  </si>
+  <si>
+    <t>19/02/2024</t>
+  </si>
+  <si>
+    <t>20/02/2024</t>
+  </si>
+  <si>
+    <t>21/02/2024</t>
+  </si>
+  <si>
+    <t>22/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>24/02/2024</t>
+  </si>
+  <si>
+    <t>25/02/2024</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>27/02/2024</t>
+  </si>
+  <si>
+    <t>28/02/2024</t>
   </si>
   <si>
     <t>Unidad kVARh</t>
@@ -551,10 +596,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1684,76 +1729,1321 @@
         <v>791.79</v>
       </c>
       <c r="D15" s="3">
-        <v>148.35</v>
+        <v>588.23</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>747.51</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>778.56</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>675.63</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>848.14</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0</v>
+        <v>1290.3</v>
       </c>
       <c r="J15" s="3">
-        <v>0.0</v>
+        <v>1848.06</v>
       </c>
       <c r="K15" s="3">
-        <v>0.0</v>
+        <v>1876.81</v>
       </c>
       <c r="L15" s="3">
-        <v>0.0</v>
+        <v>1791.13</v>
       </c>
       <c r="M15" s="3">
-        <v>0.0</v>
+        <v>1668.08</v>
       </c>
       <c r="N15" s="3">
-        <v>0.0</v>
+        <v>1693.38</v>
       </c>
       <c r="O15" s="3">
-        <v>0.0</v>
+        <v>1862.43</v>
       </c>
       <c r="P15" s="3">
-        <v>0.0</v>
+        <v>1859.55</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.0</v>
+        <v>1870.49</v>
       </c>
       <c r="R15" s="3">
-        <v>0.0</v>
+        <v>1693.38</v>
       </c>
       <c r="S15" s="3">
-        <v>0.0</v>
+        <v>1271.91</v>
       </c>
       <c r="T15" s="3">
-        <v>0.0</v>
+        <v>1135.06</v>
       </c>
       <c r="U15" s="3">
-        <v>0.0</v>
+        <v>977.52</v>
       </c>
       <c r="V15" s="3">
-        <v>0.0</v>
+        <v>1140.23</v>
       </c>
       <c r="W15" s="3">
-        <v>0.0</v>
+        <v>1156.91</v>
       </c>
       <c r="X15" s="3">
-        <v>0.0</v>
+        <v>973.49</v>
       </c>
       <c r="Y15" s="3">
-        <v>0.0</v>
+        <v>869.99</v>
       </c>
       <c r="Z15" s="3">
-        <v>0.0</v>
+        <v>888.39</v>
       </c>
       <c r="AA15" s="3">
+        <v>30296.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>807.89</v>
+      </c>
+      <c r="D16" s="3">
+        <v>654.36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>761.89</v>
+      </c>
+      <c r="F16" s="3">
+        <v>818.82</v>
+      </c>
+      <c r="G16" s="3">
+        <v>837.79</v>
+      </c>
+      <c r="H16" s="3">
+        <v>888.38</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1515.71</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1878.53</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1910.74</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1947.53</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1802.63</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1769.29</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1917.63</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1992.96</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1857.83</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1723.29</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1202.33</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1003.97</v>
+      </c>
+      <c r="U16" s="3">
+        <v>796.96</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1085.61</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1119.54</v>
+      </c>
+      <c r="X16" s="3">
+        <v>909.09</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>695.18</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>737.74</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>30635.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>728.53</v>
+      </c>
+      <c r="D17" s="3">
+        <v>616.98</v>
+      </c>
+      <c r="E17" s="3">
+        <v>725.08</v>
+      </c>
+      <c r="F17" s="3">
+        <v>730.26</v>
+      </c>
+      <c r="G17" s="3">
+        <v>773.39</v>
+      </c>
+      <c r="H17" s="3">
+        <v>854.46</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1389.78</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1787.11</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1938.91</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2037.23</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1842.31</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1726.74</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1798.03</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1769.86</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1651.99</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1423.71</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1074.11</v>
+      </c>
+      <c r="T17" s="3">
+        <v>976.36</v>
+      </c>
+      <c r="U17" s="3">
+        <v>865.38</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1068.94</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1010.86</v>
+      </c>
+      <c r="X17" s="3">
+        <v>916.56</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>790.64</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>814.79</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>29312.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>809.04</v>
+      </c>
+      <c r="D18" s="3">
+        <v>595.71</v>
+      </c>
+      <c r="E18" s="3">
+        <v>687.13</v>
+      </c>
+      <c r="F18" s="3">
+        <v>800.99</v>
+      </c>
+      <c r="G18" s="3">
+        <v>818.24</v>
+      </c>
+      <c r="H18" s="3">
+        <v>898.16</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1401.85</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1888.3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1959.61</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1938.34</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1696.26</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1784.81</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1962.49</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2019.98</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1673.83</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1203.49</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1179.92</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1016.6</v>
+      </c>
+      <c r="U18" s="3">
+        <v>809.61</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1128.16</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1106.88</v>
+      </c>
+      <c r="X18" s="3">
+        <v>989.02</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>826.86</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>862.52</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>30057.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>835.49</v>
+      </c>
+      <c r="D19" s="3">
+        <v>579.61</v>
+      </c>
+      <c r="E19" s="3">
+        <v>676.79</v>
+      </c>
+      <c r="F19" s="3">
+        <v>835.49</v>
+      </c>
+      <c r="G19" s="3">
+        <v>821.11</v>
+      </c>
+      <c r="H19" s="3">
+        <v>836.64</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1002.24</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1300.65</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1382.89</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1263.85</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1370.8</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1131.61</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1223.61</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1113.21</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>874.01</v>
+      </c>
+      <c r="R19" s="3">
+        <v>975.21</v>
+      </c>
+      <c r="S19" s="3">
+        <v>964.86</v>
+      </c>
+      <c r="T19" s="3">
+        <v>829.16</v>
+      </c>
+      <c r="U19" s="3">
+        <v>769.36</v>
+      </c>
+      <c r="V19" s="3">
+        <v>964.28</v>
+      </c>
+      <c r="W19" s="3">
+        <v>971.76</v>
+      </c>
+      <c r="X19" s="3">
+        <v>749.81</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>257.03</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>246.69</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>21976.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>242.08</v>
+      </c>
+      <c r="D20" s="3">
+        <v>242.66</v>
+      </c>
+      <c r="E20" s="3">
+        <v>236.9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>232.31</v>
+      </c>
+      <c r="G20" s="3">
+        <v>232.31</v>
+      </c>
+      <c r="H20" s="3">
+        <v>235.19</v>
+      </c>
+      <c r="I20" s="3">
+        <v>223.11</v>
+      </c>
+      <c r="J20" s="3">
+        <v>225.99</v>
+      </c>
+      <c r="K20" s="3">
+        <v>386.41</v>
+      </c>
+      <c r="L20" s="3">
+        <v>430.69</v>
+      </c>
+      <c r="M20" s="3">
+        <v>427.8</v>
+      </c>
+      <c r="N20" s="3">
+        <v>441.61</v>
+      </c>
+      <c r="O20" s="3">
+        <v>443.91</v>
+      </c>
+      <c r="P20" s="3">
+        <v>446.21</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>517.51</v>
+      </c>
+      <c r="R20" s="3">
+        <v>489.34</v>
+      </c>
+      <c r="S20" s="3">
+        <v>480.71</v>
+      </c>
+      <c r="T20" s="3">
+        <v>480.7</v>
+      </c>
+      <c r="U20" s="3">
+        <v>469.78</v>
+      </c>
+      <c r="V20" s="3">
+        <v>475.53</v>
+      </c>
+      <c r="W20" s="3">
+        <v>474.38</v>
+      </c>
+      <c r="X20" s="3">
+        <v>503.13</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>649.76</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>770.51</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>9758.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>722.21</v>
+      </c>
+      <c r="D21" s="3">
+        <v>547.99</v>
+      </c>
+      <c r="E21" s="3">
+        <v>792.94</v>
+      </c>
+      <c r="F21" s="3">
+        <v>797.54</v>
+      </c>
+      <c r="G21" s="3">
+        <v>819.96</v>
+      </c>
+      <c r="H21" s="3">
+        <v>912.53</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1622.08</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1919.94</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1963.64</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1914.18</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1761.81</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1704.88</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1837.71</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1894.63</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1919.94</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1664.63</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1127.01</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1053.99</v>
+      </c>
+      <c r="U21" s="3">
+        <v>903.33</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1125.86</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1213.27</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1017.18</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>991.3</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>976.36</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>31204.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>921.74</v>
+      </c>
+      <c r="D22" s="3">
+        <v>711.86</v>
+      </c>
+      <c r="E22" s="3">
+        <v>935.53</v>
+      </c>
+      <c r="F22" s="3">
+        <v>993.03</v>
+      </c>
+      <c r="G22" s="3">
+        <v>976.93</v>
+      </c>
+      <c r="H22" s="3">
+        <v>997.06</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1439.23</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1752.03</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1729.03</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1926.27</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1814.13</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1822.18</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1948.69</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1976.28</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1916.48</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1654.86</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1210.39</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1111.49</v>
+      </c>
+      <c r="U22" s="3">
+        <v>918.87</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1093.65</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1118.97</v>
+      </c>
+      <c r="X22" s="3">
+        <v>1060.32</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1018.91</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1026.96</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>32074.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>908.51</v>
+      </c>
+      <c r="D23" s="3">
+        <v>761.89</v>
+      </c>
+      <c r="E23" s="3">
+        <v>938.98</v>
+      </c>
+      <c r="F23" s="3">
+        <v>972.33</v>
+      </c>
+      <c r="G23" s="3">
+        <v>983.83</v>
+      </c>
+      <c r="H23" s="3">
+        <v>926.34</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1495.01</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1821.03</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1922.81</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1957.31</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1726.73</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1792.29</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1898.67</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1914.77</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1743.41</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1627.26</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1282.25</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1117.24</v>
+      </c>
+      <c r="U23" s="3">
+        <v>937.84</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1192.56</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1174.15</v>
+      </c>
+      <c r="X23" s="3">
+        <v>968.89</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>993.61</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1019.48</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>32077.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>871.71</v>
+      </c>
+      <c r="D24" s="3">
+        <v>711.86</v>
+      </c>
+      <c r="E24" s="3">
+        <v>856.76</v>
+      </c>
+      <c r="F24" s="3">
+        <v>899.31</v>
+      </c>
+      <c r="G24" s="3">
+        <v>951.64</v>
+      </c>
+      <c r="H24" s="3">
+        <v>974.64</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1402.43</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1843.46</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1893.49</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1986.64</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1749.74</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1743.98</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1872.21</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1929.13</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1863.59</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1721.56</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1287.44</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1078.71</v>
+      </c>
+      <c r="U24" s="3">
+        <v>953.94</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1145.41</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1138.51</v>
+      </c>
+      <c r="X24" s="3">
+        <v>977.51</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>995.91</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>995.92</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>31845.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>891.27</v>
+      </c>
+      <c r="D25" s="3">
+        <v>697.49</v>
+      </c>
+      <c r="E25" s="3">
+        <v>901.03</v>
+      </c>
+      <c r="F25" s="3">
         <v>940.14</v>
+      </c>
+      <c r="G25" s="3">
+        <v>922.88</v>
+      </c>
+      <c r="H25" s="3">
+        <v>949.33</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1201.18</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1594.48</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1809.53</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1991.81</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1709.49</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1826.78</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1956.16</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1928.57</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1665.79</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1267.88</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1190.25</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1022.36</v>
+      </c>
+      <c r="U25" s="3">
+        <v>825.13</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1105.16</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1097.69</v>
+      </c>
+      <c r="X25" s="3">
+        <v>923.46</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>988.44</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>1029.83</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>30436.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3">
+        <v>916.56</v>
+      </c>
+      <c r="D26" s="3">
+        <v>677.93</v>
+      </c>
+      <c r="E26" s="3">
+        <v>852.74</v>
+      </c>
+      <c r="F26" s="3">
+        <v>949.91</v>
+      </c>
+      <c r="G26" s="3">
+        <v>952.21</v>
+      </c>
+      <c r="H26" s="3">
+        <v>901.61</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1100.56</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1364.48</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1337.46</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1446.14</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1384.04</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1185.66</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1289.73</v>
+      </c>
+      <c r="P26" s="3">
+        <v>971.18</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>773.38</v>
+      </c>
+      <c r="R26" s="3">
+        <v>850.43</v>
+      </c>
+      <c r="S26" s="3">
+        <v>850.43</v>
+      </c>
+      <c r="T26" s="3">
+        <v>799.84</v>
+      </c>
+      <c r="U26" s="3">
+        <v>719.91</v>
+      </c>
+      <c r="V26" s="3">
+        <v>884.37</v>
+      </c>
+      <c r="W26" s="3">
+        <v>904.48</v>
+      </c>
+      <c r="X26" s="3">
+        <v>701.51</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>472.09</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>470.36</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>22757.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>470.93</v>
+      </c>
+      <c r="D27" s="3">
+        <v>461.15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>464.61</v>
+      </c>
+      <c r="F27" s="3">
+        <v>468.64</v>
+      </c>
+      <c r="G27" s="3">
+        <v>456.55</v>
+      </c>
+      <c r="H27" s="3">
+        <v>462.31</v>
+      </c>
+      <c r="I27" s="3">
+        <v>451.38</v>
+      </c>
+      <c r="J27" s="3">
+        <v>478.41</v>
+      </c>
+      <c r="K27" s="3">
+        <v>537.06</v>
+      </c>
+      <c r="L27" s="3">
+        <v>559.49</v>
+      </c>
+      <c r="M27" s="3">
+        <v>577.88</v>
+      </c>
+      <c r="N27" s="3">
+        <v>563.51</v>
+      </c>
+      <c r="O27" s="3">
+        <v>580.76</v>
+      </c>
+      <c r="P27" s="3">
+        <v>596.86</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>569.84</v>
+      </c>
+      <c r="R27" s="3">
+        <v>447.94</v>
+      </c>
+      <c r="S27" s="3">
+        <v>453.11</v>
+      </c>
+      <c r="T27" s="3">
+        <v>432.41</v>
+      </c>
+      <c r="U27" s="3">
+        <v>432.98</v>
+      </c>
+      <c r="V27" s="3">
+        <v>442.75</v>
+      </c>
+      <c r="W27" s="3">
+        <v>438.73</v>
+      </c>
+      <c r="X27" s="3">
+        <v>471.51</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>631.36</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>703.81</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>12153.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>726.81</v>
+      </c>
+      <c r="D28" s="3">
+        <v>615.26</v>
+      </c>
+      <c r="E28" s="3">
+        <v>782.58</v>
+      </c>
+      <c r="F28" s="3">
+        <v>822.83</v>
+      </c>
+      <c r="G28" s="3">
+        <v>818.81</v>
+      </c>
+      <c r="H28" s="3">
+        <v>948.76</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1522.04</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1912.46</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1943.51</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1986.63</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1720.99</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1789.41</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1660.61</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1703.16</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1811.26</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1500.18</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1076.98</v>
+      </c>
+      <c r="T28" s="3">
+        <v>929.21</v>
+      </c>
+      <c r="U28" s="3">
+        <v>803.86</v>
+      </c>
+      <c r="V28" s="3">
+        <v>933.23</v>
+      </c>
+      <c r="W28" s="3">
+        <v>911.96</v>
+      </c>
+      <c r="X28" s="3">
+        <v>800.98</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>683.12</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>679.08</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>29083.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>669.32</v>
+      </c>
+      <c r="D29" s="3">
+        <v>652.06</v>
+      </c>
+      <c r="E29" s="3">
+        <v>650.92</v>
+      </c>
+      <c r="F29" s="3">
+        <v>656.67</v>
+      </c>
+      <c r="G29" s="3">
+        <v>713.01</v>
+      </c>
+      <c r="H29" s="3">
+        <v>978.09</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1282.83</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1661.19</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1669.24</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1736.51</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1351.25</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1388.06</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1916.49</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2013.09</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1907.85</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1686.48</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1317.91</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1114.36</v>
+      </c>
+      <c r="U29" s="3">
+        <v>952.79</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1063.18</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1166.68</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1011.43</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>661.25</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>728.54</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>28949.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>703.81</v>
+      </c>
+      <c r="D30" s="3">
+        <v>145.48</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>849.29</v>
       </c>
     </row>
   </sheetData>
@@ -1780,10 +3070,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2913,76 +4203,1321 @@
         <v>269.69</v>
       </c>
       <c r="D15" s="3">
-        <v>21.85</v>
+        <v>89.14</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>227.71</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>257.6</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>166.76</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>215.06</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0</v>
+        <v>452.53</v>
       </c>
       <c r="J15" s="3">
-        <v>0.0</v>
+        <v>780.28</v>
       </c>
       <c r="K15" s="3">
-        <v>0.0</v>
+        <v>779.71</v>
       </c>
       <c r="L15" s="3">
-        <v>0.0</v>
+        <v>662.41</v>
       </c>
       <c r="M15" s="3">
-        <v>0.0</v>
+        <v>549.71</v>
       </c>
       <c r="N15" s="3">
-        <v>0.0</v>
+        <v>636.54</v>
       </c>
       <c r="O15" s="3">
-        <v>0.0</v>
+        <v>736.58</v>
       </c>
       <c r="P15" s="3">
-        <v>0.0</v>
+        <v>729.68</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.0</v>
+        <v>739.46</v>
       </c>
       <c r="R15" s="3">
-        <v>0.0</v>
+        <v>621.01</v>
       </c>
       <c r="S15" s="3">
-        <v>0.0</v>
+        <v>445.63</v>
       </c>
       <c r="T15" s="3">
-        <v>0.0</v>
+        <v>401.36</v>
       </c>
       <c r="U15" s="3">
-        <v>0.0</v>
+        <v>322.59</v>
       </c>
       <c r="V15" s="3">
-        <v>0.0</v>
+        <v>388.14</v>
       </c>
       <c r="W15" s="3">
-        <v>0.0</v>
+        <v>414.02</v>
       </c>
       <c r="X15" s="3">
-        <v>0.0</v>
+        <v>342.72</v>
       </c>
       <c r="Y15" s="3">
-        <v>0.0</v>
+        <v>312.81</v>
       </c>
       <c r="Z15" s="3">
-        <v>0.0</v>
+        <v>333.51</v>
       </c>
       <c r="AA15" s="3">
+        <v>10874.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>275.43</v>
+      </c>
+      <c r="D16" s="3">
+        <v>184.01</v>
+      </c>
+      <c r="E16" s="3">
+        <v>258.19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>285.79</v>
+      </c>
+      <c r="G16" s="3">
+        <v>313.96</v>
+      </c>
+      <c r="H16" s="3">
+        <v>286.36</v>
+      </c>
+      <c r="I16" s="3">
+        <v>547.98</v>
+      </c>
+      <c r="J16" s="3">
+        <v>725.65</v>
+      </c>
+      <c r="K16" s="3">
+        <v>730.26</v>
+      </c>
+      <c r="L16" s="3">
+        <v>723.36</v>
+      </c>
+      <c r="M16" s="3">
+        <v>610.08</v>
+      </c>
+      <c r="N16" s="3">
+        <v>613.54</v>
+      </c>
+      <c r="O16" s="3">
+        <v>729.11</v>
+      </c>
+      <c r="P16" s="3">
+        <v>752.1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>658.38</v>
+      </c>
+      <c r="R16" s="3">
+        <v>615.83</v>
+      </c>
+      <c r="S16" s="3">
+        <v>415.16</v>
+      </c>
+      <c r="T16" s="3">
+        <v>354.21</v>
+      </c>
+      <c r="U16" s="3">
+        <v>249.56</v>
+      </c>
+      <c r="V16" s="3">
+        <v>426.09</v>
+      </c>
+      <c r="W16" s="3">
+        <v>447.94</v>
+      </c>
+      <c r="X16" s="3">
+        <v>302.47</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>128.23</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>144.9</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>10778.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>157.56</v>
+      </c>
+      <c r="D17" s="3">
+        <v>80.51</v>
+      </c>
+      <c r="E17" s="3">
+        <v>146.63</v>
+      </c>
+      <c r="F17" s="3">
+        <v>148.94</v>
+      </c>
+      <c r="G17" s="3">
+        <v>198.95</v>
+      </c>
+      <c r="H17" s="3">
+        <v>217.93</v>
+      </c>
+      <c r="I17" s="3">
+        <v>515.2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>770.52</v>
+      </c>
+      <c r="K17" s="3">
+        <v>833.19</v>
+      </c>
+      <c r="L17" s="3">
+        <v>921.16</v>
+      </c>
+      <c r="M17" s="3">
+        <v>753.26</v>
+      </c>
+      <c r="N17" s="3">
+        <v>671.61</v>
+      </c>
+      <c r="O17" s="3">
+        <v>683.68</v>
+      </c>
+      <c r="P17" s="3">
+        <v>635.39</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>588.24</v>
+      </c>
+      <c r="R17" s="3">
+        <v>474.38</v>
+      </c>
+      <c r="S17" s="3">
+        <v>345.59</v>
+      </c>
+      <c r="T17" s="3">
+        <v>322.58</v>
+      </c>
+      <c r="U17" s="3">
+        <v>266.81</v>
+      </c>
+      <c r="V17" s="3">
+        <v>354.79</v>
+      </c>
+      <c r="W17" s="3">
+        <v>328.91</v>
+      </c>
+      <c r="X17" s="3">
+        <v>285.21</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>190.33</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>204.71</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>10096.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>212.18</v>
+      </c>
+      <c r="D18" s="3">
+        <v>85.11</v>
+      </c>
+      <c r="E18" s="3">
+        <v>144.34</v>
+      </c>
+      <c r="F18" s="3">
+        <v>225.41</v>
+      </c>
+      <c r="G18" s="3">
+        <v>227.71</v>
+      </c>
+      <c r="H18" s="3">
+        <v>336.96</v>
+      </c>
+      <c r="I18" s="3">
+        <v>508.89</v>
+      </c>
+      <c r="J18" s="3">
+        <v>763.62</v>
+      </c>
+      <c r="K18" s="3">
+        <v>779.72</v>
+      </c>
+      <c r="L18" s="3">
+        <v>766.48</v>
+      </c>
+      <c r="M18" s="3">
+        <v>593.42</v>
+      </c>
+      <c r="N18" s="3">
+        <v>696.91</v>
+      </c>
+      <c r="O18" s="3">
+        <v>851.01</v>
+      </c>
+      <c r="P18" s="3">
+        <v>913.68</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>653.21</v>
+      </c>
+      <c r="R18" s="3">
+        <v>468.63</v>
+      </c>
+      <c r="S18" s="3">
+        <v>470.94</v>
+      </c>
+      <c r="T18" s="3">
+        <v>473.24</v>
+      </c>
+      <c r="U18" s="3">
+        <v>256.46</v>
+      </c>
+      <c r="V18" s="3">
+        <v>401.94</v>
+      </c>
+      <c r="W18" s="3">
+        <v>389.86</v>
+      </c>
+      <c r="X18" s="3">
+        <v>338.11</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>232.31</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>252.43</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>11042.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>242.09</v>
+      </c>
+      <c r="D19" s="3">
+        <v>96.61</v>
+      </c>
+      <c r="E19" s="3">
+        <v>154.68</v>
+      </c>
+      <c r="F19" s="3">
+        <v>253.01</v>
+      </c>
+      <c r="G19" s="3">
+        <v>242.09</v>
+      </c>
+      <c r="H19" s="3">
+        <v>222.54</v>
+      </c>
+      <c r="I19" s="3">
+        <v>257.04</v>
+      </c>
+      <c r="J19" s="3">
+        <v>401.94</v>
+      </c>
+      <c r="K19" s="3">
+        <v>466.92</v>
+      </c>
+      <c r="L19" s="3">
+        <v>377.21</v>
+      </c>
+      <c r="M19" s="3">
+        <v>484.74</v>
+      </c>
+      <c r="N19" s="3">
+        <v>328.34</v>
+      </c>
+      <c r="O19" s="3">
+        <v>408.26</v>
+      </c>
+      <c r="P19" s="3">
+        <v>388.14</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>312.82</v>
+      </c>
+      <c r="R19" s="3">
+        <v>378.94</v>
+      </c>
+      <c r="S19" s="3">
+        <v>388.14</v>
+      </c>
+      <c r="T19" s="3">
+        <v>288.09</v>
+      </c>
+      <c r="U19" s="3">
+        <v>243.82</v>
+      </c>
+      <c r="V19" s="3">
+        <v>362.83</v>
+      </c>
+      <c r="W19" s="3">
+        <v>358.81</v>
+      </c>
+      <c r="X19" s="3">
+        <v>250.71</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>17.83</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>14.96</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>6940.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22.43</v>
+      </c>
+      <c r="D20" s="3">
+        <v>23.01</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17.84</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15.53</v>
+      </c>
+      <c r="H20" s="3">
+        <v>16.69</v>
+      </c>
+      <c r="I20" s="3">
+        <v>14.96</v>
+      </c>
+      <c r="J20" s="3">
+        <v>17.26</v>
+      </c>
+      <c r="K20" s="3">
+        <v>29.91</v>
+      </c>
+      <c r="L20" s="3">
+        <v>48.32</v>
+      </c>
+      <c r="M20" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>45.43</v>
+      </c>
+      <c r="O20" s="3">
+        <v>47.16</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.01</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>52.91</v>
+      </c>
+      <c r="R20" s="3">
+        <v>43.71</v>
+      </c>
+      <c r="S20" s="3">
+        <v>40.83</v>
+      </c>
+      <c r="T20" s="3">
+        <v>37.96</v>
+      </c>
+      <c r="U20" s="3">
+        <v>35.09</v>
+      </c>
+      <c r="V20" s="3">
+        <v>43.71</v>
+      </c>
+      <c r="W20" s="3">
+        <v>44.86</v>
+      </c>
+      <c r="X20" s="3">
+        <v>50.61</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>120.77</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>196.08</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1070.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>178.26</v>
+      </c>
+      <c r="D21" s="3">
+        <v>68.43</v>
+      </c>
+      <c r="E21" s="3">
+        <v>228.29</v>
+      </c>
+      <c r="F21" s="3">
+        <v>219.66</v>
+      </c>
+      <c r="G21" s="3">
+        <v>232.89</v>
+      </c>
+      <c r="H21" s="3">
+        <v>273.71</v>
+      </c>
+      <c r="I21" s="3">
+        <v>608.93</v>
+      </c>
+      <c r="J21" s="3">
+        <v>761.89</v>
+      </c>
+      <c r="K21" s="3">
+        <v>790.64</v>
+      </c>
+      <c r="L21" s="3">
+        <v>725.66</v>
+      </c>
+      <c r="M21" s="3">
+        <v>603.76</v>
+      </c>
+      <c r="N21" s="3">
+        <v>616.41</v>
+      </c>
+      <c r="O21" s="3">
+        <v>761.31</v>
+      </c>
+      <c r="P21" s="3">
+        <v>797.53</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>834.91</v>
+      </c>
+      <c r="R21" s="3">
+        <v>618.71</v>
+      </c>
+      <c r="S21" s="3">
+        <v>353.06</v>
+      </c>
+      <c r="T21" s="3">
+        <v>367.44</v>
+      </c>
+      <c r="U21" s="3">
         <v>291.54</v>
+      </c>
+      <c r="V21" s="3">
+        <v>406.54</v>
+      </c>
+      <c r="W21" s="3">
+        <v>422.06</v>
+      </c>
+      <c r="X21" s="3">
+        <v>308.78</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>283.48</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>299.59</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>11053.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>249.56</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100.63</v>
+      </c>
+      <c r="E22" s="3">
+        <v>250.13</v>
+      </c>
+      <c r="F22" s="3">
+        <v>294.99</v>
+      </c>
+      <c r="G22" s="3">
+        <v>298.43</v>
+      </c>
+      <c r="H22" s="3">
+        <v>247.26</v>
+      </c>
+      <c r="I22" s="3">
+        <v>477.26</v>
+      </c>
+      <c r="J22" s="3">
+        <v>619.28</v>
+      </c>
+      <c r="K22" s="3">
+        <v>627.33</v>
+      </c>
+      <c r="L22" s="3">
+        <v>722.79</v>
+      </c>
+      <c r="M22" s="3">
+        <v>641.71</v>
+      </c>
+      <c r="N22" s="3">
+        <v>662.98</v>
+      </c>
+      <c r="O22" s="3">
+        <v>767.06</v>
+      </c>
+      <c r="P22" s="3">
+        <v>768.79</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>684.25</v>
+      </c>
+      <c r="R22" s="3">
+        <v>578.45</v>
+      </c>
+      <c r="S22" s="3">
+        <v>397.91</v>
+      </c>
+      <c r="T22" s="3">
+        <v>393.88</v>
+      </c>
+      <c r="U22" s="3">
+        <v>292.69</v>
+      </c>
+      <c r="V22" s="3">
+        <v>376.63</v>
+      </c>
+      <c r="W22" s="3">
+        <v>391.58</v>
+      </c>
+      <c r="X22" s="3">
+        <v>355.94</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>336.96</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>366.86</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>10903.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>299.01</v>
+      </c>
+      <c r="D23" s="3">
+        <v>196.08</v>
+      </c>
+      <c r="E23" s="3">
+        <v>312.24</v>
+      </c>
+      <c r="F23" s="3">
+        <v>331.79</v>
+      </c>
+      <c r="G23" s="3">
+        <v>336.96</v>
+      </c>
+      <c r="H23" s="3">
+        <v>255.31</v>
+      </c>
+      <c r="I23" s="3">
+        <v>528.43</v>
+      </c>
+      <c r="J23" s="3">
+        <v>667.01</v>
+      </c>
+      <c r="K23" s="3">
+        <v>940.71</v>
+      </c>
+      <c r="L23" s="3">
+        <v>934.39</v>
+      </c>
+      <c r="M23" s="3">
+        <v>580.18</v>
+      </c>
+      <c r="N23" s="3">
+        <v>662.98</v>
+      </c>
+      <c r="O23" s="3">
+        <v>719.33</v>
+      </c>
+      <c r="P23" s="3">
+        <v>810.18</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>887.24</v>
+      </c>
+      <c r="R23" s="3">
+        <v>731.4</v>
+      </c>
+      <c r="S23" s="3">
+        <v>510.04</v>
+      </c>
+      <c r="T23" s="3">
+        <v>436.43</v>
+      </c>
+      <c r="U23" s="3">
+        <v>314.54</v>
+      </c>
+      <c r="V23" s="3">
+        <v>463.46</v>
+      </c>
+      <c r="W23" s="3">
+        <v>457.71</v>
+      </c>
+      <c r="X23" s="3">
+        <v>353.64</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>393.31</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>405.38</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12527.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>321.44</v>
+      </c>
+      <c r="D24" s="3">
+        <v>194.35</v>
+      </c>
+      <c r="E24" s="3">
+        <v>294.41</v>
+      </c>
+      <c r="F24" s="3">
+        <v>346.16</v>
+      </c>
+      <c r="G24" s="3">
+        <v>384.68</v>
+      </c>
+      <c r="H24" s="3">
+        <v>343.86</v>
+      </c>
+      <c r="I24" s="3">
+        <v>500.84</v>
+      </c>
+      <c r="J24" s="3">
+        <v>734.28</v>
+      </c>
+      <c r="K24" s="3">
+        <v>726.81</v>
+      </c>
+      <c r="L24" s="3">
+        <v>804.43</v>
+      </c>
+      <c r="M24" s="3">
+        <v>629.64</v>
+      </c>
+      <c r="N24" s="3">
+        <v>641.71</v>
+      </c>
+      <c r="O24" s="3">
+        <v>719.91</v>
+      </c>
+      <c r="P24" s="3">
+        <v>747.51</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>736.01</v>
+      </c>
+      <c r="R24" s="3">
+        <v>673.9</v>
+      </c>
+      <c r="S24" s="3">
+        <v>506.58</v>
+      </c>
+      <c r="T24" s="3">
+        <v>396.77</v>
+      </c>
+      <c r="U24" s="3">
+        <v>312.81</v>
+      </c>
+      <c r="V24" s="3">
+        <v>435.29</v>
+      </c>
+      <c r="W24" s="3">
+        <v>431.84</v>
+      </c>
+      <c r="X24" s="3">
+        <v>343.86</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>391.59</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>391.02</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>12009.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>342.13</v>
+      </c>
+      <c r="D25" s="3">
+        <v>186.89</v>
+      </c>
+      <c r="E25" s="3">
+        <v>332.36</v>
+      </c>
+      <c r="F25" s="3">
+        <v>385.26</v>
+      </c>
+      <c r="G25" s="3">
+        <v>381.81</v>
+      </c>
+      <c r="H25" s="3">
+        <v>323.73</v>
+      </c>
+      <c r="I25" s="3">
+        <v>389.86</v>
+      </c>
+      <c r="J25" s="3">
+        <v>565.24</v>
+      </c>
+      <c r="K25" s="3">
+        <v>720.48</v>
+      </c>
+      <c r="L25" s="3">
+        <v>918.85</v>
+      </c>
+      <c r="M25" s="3">
+        <v>604.9</v>
+      </c>
+      <c r="N25" s="3">
+        <v>736.01</v>
+      </c>
+      <c r="O25" s="3">
+        <v>847.56</v>
+      </c>
+      <c r="P25" s="3">
+        <v>771.09</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>627.9</v>
+      </c>
+      <c r="R25" s="3">
+        <v>497.38</v>
+      </c>
+      <c r="S25" s="3">
+        <v>482.43</v>
+      </c>
+      <c r="T25" s="3">
+        <v>387.56</v>
+      </c>
+      <c r="U25" s="3">
+        <v>253.01</v>
+      </c>
+      <c r="V25" s="3">
+        <v>423.79</v>
+      </c>
+      <c r="W25" s="3">
+        <v>417.46</v>
+      </c>
+      <c r="X25" s="3">
+        <v>324.31</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>397.91</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>415.73</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>11733.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3">
+        <v>362.26</v>
+      </c>
+      <c r="D26" s="3">
+        <v>184.01</v>
+      </c>
+      <c r="E26" s="3">
+        <v>309.36</v>
+      </c>
+      <c r="F26" s="3">
+        <v>385.26</v>
+      </c>
+      <c r="G26" s="3">
+        <v>384.68</v>
+      </c>
+      <c r="H26" s="3">
+        <v>322.01</v>
+      </c>
+      <c r="I26" s="3">
+        <v>421.48</v>
+      </c>
+      <c r="J26" s="3">
+        <v>562.94</v>
+      </c>
+      <c r="K26" s="3">
+        <v>537.63</v>
+      </c>
+      <c r="L26" s="3">
+        <v>585.36</v>
+      </c>
+      <c r="M26" s="3">
+        <v>508.31</v>
+      </c>
+      <c r="N26" s="3">
+        <v>362.84</v>
+      </c>
+      <c r="O26" s="3">
+        <v>469.21</v>
+      </c>
+      <c r="P26" s="3">
+        <v>286.93</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>207.01</v>
+      </c>
+      <c r="R26" s="3">
+        <v>250.14</v>
+      </c>
+      <c r="S26" s="3">
+        <v>259.9</v>
+      </c>
+      <c r="T26" s="3">
+        <v>240.94</v>
+      </c>
+      <c r="U26" s="3">
+        <v>183.43</v>
+      </c>
+      <c r="V26" s="3">
+        <v>334.65</v>
+      </c>
+      <c r="W26" s="3">
+        <v>355.94</v>
+      </c>
+      <c r="X26" s="3">
+        <v>266.8</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>78.22</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>78.21</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>7937.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>78.79</v>
+      </c>
+      <c r="D27" s="3">
+        <v>77.64</v>
+      </c>
+      <c r="E27" s="3">
+        <v>81.09</v>
+      </c>
+      <c r="F27" s="3">
+        <v>90.28</v>
+      </c>
+      <c r="G27" s="3">
+        <v>83.38</v>
+      </c>
+      <c r="H27" s="3">
+        <v>85.12</v>
+      </c>
+      <c r="I27" s="3">
+        <v>83.95</v>
+      </c>
+      <c r="J27" s="3">
+        <v>90.86</v>
+      </c>
+      <c r="K27" s="3">
+        <v>131.11</v>
+      </c>
+      <c r="L27" s="3">
+        <v>138.01</v>
+      </c>
+      <c r="M27" s="3">
+        <v>145.49</v>
+      </c>
+      <c r="N27" s="3">
+        <v>135.14</v>
+      </c>
+      <c r="O27" s="3">
+        <v>138.59</v>
+      </c>
+      <c r="P27" s="3">
+        <v>154.69</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>147.21</v>
+      </c>
+      <c r="R27" s="3">
+        <v>101.21</v>
+      </c>
+      <c r="S27" s="3">
+        <v>111.56</v>
+      </c>
+      <c r="T27" s="3">
+        <v>93.74</v>
+      </c>
+      <c r="U27" s="3">
+        <v>91.44</v>
+      </c>
+      <c r="V27" s="3">
+        <v>87.99</v>
+      </c>
+      <c r="W27" s="3">
+        <v>83.39</v>
+      </c>
+      <c r="X27" s="3">
+        <v>100.07</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>199.53</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>243.23</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>2773.51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>300.15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>181.14</v>
+      </c>
+      <c r="E28" s="3">
+        <v>305.33</v>
+      </c>
+      <c r="F28" s="3">
+        <v>339.84</v>
+      </c>
+      <c r="G28" s="3">
+        <v>330.06</v>
+      </c>
+      <c r="H28" s="3">
+        <v>342.14</v>
+      </c>
+      <c r="I28" s="3">
+        <v>563.5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>778.56</v>
+      </c>
+      <c r="K28" s="3">
+        <v>800.99</v>
+      </c>
+      <c r="L28" s="3">
+        <v>798.68</v>
+      </c>
+      <c r="M28" s="3">
+        <v>599.17</v>
+      </c>
+      <c r="N28" s="3">
+        <v>704.96</v>
+      </c>
+      <c r="O28" s="3">
+        <v>565.81</v>
+      </c>
+      <c r="P28" s="3">
+        <v>569.26</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>711.29</v>
+      </c>
+      <c r="R28" s="3">
+        <v>524.41</v>
+      </c>
+      <c r="S28" s="3">
+        <v>391.58</v>
+      </c>
+      <c r="T28" s="3">
+        <v>342.71</v>
+      </c>
+      <c r="U28" s="3">
+        <v>280.04</v>
+      </c>
+      <c r="V28" s="3">
+        <v>329.49</v>
+      </c>
+      <c r="W28" s="3">
+        <v>304.18</v>
+      </c>
+      <c r="X28" s="3">
+        <v>240.93</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>142.03</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>146.63</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>10592.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>155.84</v>
+      </c>
+      <c r="D29" s="3">
+        <v>129.96</v>
+      </c>
+      <c r="E29" s="3">
+        <v>137.44</v>
+      </c>
+      <c r="F29" s="3">
+        <v>145.48</v>
+      </c>
+      <c r="G29" s="3">
+        <v>190.34</v>
+      </c>
+      <c r="H29" s="3">
+        <v>311.66</v>
+      </c>
+      <c r="I29" s="3">
+        <v>437.59</v>
+      </c>
+      <c r="J29" s="3">
+        <v>623.31</v>
+      </c>
+      <c r="K29" s="3">
+        <v>654.36</v>
+      </c>
+      <c r="L29" s="3">
+        <v>666.44</v>
+      </c>
+      <c r="M29" s="3">
+        <v>472.08</v>
+      </c>
+      <c r="N29" s="3">
+        <v>474.97</v>
+      </c>
+      <c r="O29" s="3">
+        <v>777.98</v>
+      </c>
+      <c r="P29" s="3">
+        <v>854.46</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>792.93</v>
+      </c>
+      <c r="R29" s="3">
+        <v>688.29</v>
+      </c>
+      <c r="S29" s="3">
+        <v>527.29</v>
+      </c>
+      <c r="T29" s="3">
+        <v>431.83</v>
+      </c>
+      <c r="U29" s="3">
+        <v>339.27</v>
+      </c>
+      <c r="V29" s="3">
+        <v>376.06</v>
+      </c>
+      <c r="W29" s="3">
+        <v>494.5</v>
+      </c>
+      <c r="X29" s="3">
+        <v>380.09</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>135.14</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>195.51</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>10392.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>204.71</v>
+      </c>
+      <c r="D30" s="3">
+        <v>28.18</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>232.89</v>
       </c>
     </row>
   </sheetData>
@@ -3009,10 +5544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3023,7 +5558,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4214,6 +6749,1251 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.16</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.16</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -4238,10 +8018,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4252,7 +8032,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5443,6 +9223,1251 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>15.54</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -5467,10 +10492,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5481,7 +10506,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5590,7 +10615,7 @@
         <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -6603,72 +11628,1317 @@
         <v>0.99</v>
       </c>
       <c r="E15" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P30" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q30" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R30" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S30" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T30" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U30" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V30" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W30" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X30" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y30" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z30" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA30" s="3">
         <v>0.08</v>
       </c>
     </row>

--- a/downloads/Consumos medidos 2024-02 2024-02.xlsx
+++ b/downloads/Consumos medidos 2024-02 2024-02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Unidad kWh</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>28/02/2024</t>
+  </si>
+  <si>
+    <t>29/02/2024</t>
   </si>
   <si>
     <t>Unidad kVARh</t>
@@ -596,10 +599,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A30"/>
+      <selection activeCell="A3" sqref="A3:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2974,76 +2977,159 @@
         <v>703.81</v>
       </c>
       <c r="D30" s="3">
-        <v>145.48</v>
+        <v>606.64</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>609.5</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>605.49</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>645.74</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>839.51</v>
       </c>
       <c r="I30" s="3">
-        <v>0.0</v>
+        <v>1462.81</v>
       </c>
       <c r="J30" s="3">
-        <v>0.0</v>
+        <v>1787.68</v>
       </c>
       <c r="K30" s="3">
-        <v>0.0</v>
+        <v>1932.58</v>
       </c>
       <c r="L30" s="3">
-        <v>0.0</v>
+        <v>1981.45</v>
       </c>
       <c r="M30" s="3">
-        <v>0.0</v>
+        <v>1749.17</v>
       </c>
       <c r="N30" s="3">
-        <v>0.0</v>
+        <v>1753.76</v>
       </c>
       <c r="O30" s="3">
-        <v>0.0</v>
+        <v>2015.39</v>
       </c>
       <c r="P30" s="3">
-        <v>0.0</v>
+        <v>2042.41</v>
       </c>
       <c r="Q30" s="3">
-        <v>0.0</v>
+        <v>1919.93</v>
       </c>
       <c r="R30" s="3">
-        <v>0.0</v>
+        <v>1673.84</v>
       </c>
       <c r="S30" s="3">
-        <v>0.0</v>
+        <v>1252.36</v>
       </c>
       <c r="T30" s="3">
-        <v>0.0</v>
+        <v>1096.53</v>
       </c>
       <c r="U30" s="3">
-        <v>0.0</v>
+        <v>844.68</v>
       </c>
       <c r="V30" s="3">
-        <v>0.0</v>
+        <v>1039.61</v>
       </c>
       <c r="W30" s="3">
-        <v>0.0</v>
+        <v>1083.31</v>
       </c>
       <c r="X30" s="3">
-        <v>0.0</v>
+        <v>901.6</v>
       </c>
       <c r="Y30" s="3">
-        <v>0.0</v>
+        <v>873.43</v>
       </c>
       <c r="Z30" s="3">
-        <v>0.0</v>
+        <v>841.24</v>
       </c>
       <c r="AA30" s="3">
-        <v>849.29</v>
+        <v>30262.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3">
+        <v>690.59</v>
+      </c>
+      <c r="D31" s="3">
+        <v>596.29</v>
+      </c>
+      <c r="E31" s="3">
+        <v>702.08</v>
+      </c>
+      <c r="F31" s="3">
+        <v>768.21</v>
+      </c>
+      <c r="G31" s="3">
+        <v>779.71</v>
+      </c>
+      <c r="H31" s="3">
+        <v>933.82</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1492.71</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1907.86</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2042.41</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2068.86</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1801.48</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1784.24</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1980.31</v>
+      </c>
+      <c r="P31" s="3">
+        <v>2036.08</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1872.22</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1587.58</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1099.98</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1001.09</v>
+      </c>
+      <c r="U31" s="3">
+        <v>852.16</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1075.26</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1091.94</v>
+      </c>
+      <c r="X31" s="3">
+        <v>914.84</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>847.55</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>924.04</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>30851.31</v>
       </c>
     </row>
   </sheetData>
@@ -3070,10 +3156,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A30"/>
+      <selection activeCell="A3" sqref="A3:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3084,7 +3170,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5448,76 +5534,159 @@
         <v>204.71</v>
       </c>
       <c r="D30" s="3">
-        <v>28.18</v>
+        <v>112.72</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>116.73</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>135.72</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>161.59</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>224.26</v>
       </c>
       <c r="I30" s="3">
-        <v>0.0</v>
+        <v>548.56</v>
       </c>
       <c r="J30" s="3">
-        <v>0.0</v>
+        <v>700.94</v>
       </c>
       <c r="K30" s="3">
-        <v>0.0</v>
+        <v>796.38</v>
       </c>
       <c r="L30" s="3">
-        <v>0.0</v>
+        <v>908.52</v>
       </c>
       <c r="M30" s="3">
-        <v>0.0</v>
+        <v>669.31</v>
       </c>
       <c r="N30" s="3">
-        <v>0.0</v>
+        <v>662.41</v>
       </c>
       <c r="O30" s="3">
-        <v>0.0</v>
+        <v>902.18</v>
       </c>
       <c r="P30" s="3">
-        <v>0.0</v>
+        <v>927.48</v>
       </c>
       <c r="Q30" s="3">
-        <v>0.0</v>
+        <v>779.14</v>
       </c>
       <c r="R30" s="3">
-        <v>0.0</v>
+        <v>608.36</v>
       </c>
       <c r="S30" s="3">
-        <v>0.0</v>
+        <v>443.92</v>
       </c>
       <c r="T30" s="3">
-        <v>0.0</v>
+        <v>392.17</v>
       </c>
       <c r="U30" s="3">
-        <v>0.0</v>
+        <v>285.21</v>
       </c>
       <c r="V30" s="3">
-        <v>0.0</v>
+        <v>389.86</v>
       </c>
       <c r="W30" s="3">
-        <v>0.0</v>
+        <v>413.43</v>
       </c>
       <c r="X30" s="3">
-        <v>0.0</v>
+        <v>299.01</v>
       </c>
       <c r="Y30" s="3">
-        <v>0.0</v>
+        <v>295.56</v>
       </c>
       <c r="Z30" s="3">
-        <v>0.0</v>
+        <v>275.44</v>
       </c>
       <c r="AA30" s="3">
-        <v>232.89</v>
+        <v>11253.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3">
+        <v>163.89</v>
+      </c>
+      <c r="D31" s="3">
+        <v>101.79</v>
+      </c>
+      <c r="E31" s="3">
+        <v>178.84</v>
+      </c>
+      <c r="F31" s="3">
+        <v>239.21</v>
+      </c>
+      <c r="G31" s="3">
+        <v>246.11</v>
+      </c>
+      <c r="H31" s="3">
+        <v>300.73</v>
+      </c>
+      <c r="I31" s="3">
+        <v>543.96</v>
+      </c>
+      <c r="J31" s="3">
+        <v>790.07</v>
+      </c>
+      <c r="K31" s="3">
+        <v>896.43</v>
+      </c>
+      <c r="L31" s="3">
+        <v>886.09</v>
+      </c>
+      <c r="M31" s="3">
+        <v>665.86</v>
+      </c>
+      <c r="N31" s="3">
+        <v>695.19</v>
+      </c>
+      <c r="O31" s="3">
+        <v>865.38</v>
+      </c>
+      <c r="P31" s="3">
+        <v>956.82</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1039.04</v>
+      </c>
+      <c r="R31" s="3">
+        <v>730.83</v>
+      </c>
+      <c r="S31" s="3">
+        <v>443.33</v>
+      </c>
+      <c r="T31" s="3">
+        <v>426.08</v>
+      </c>
+      <c r="U31" s="3">
+        <v>336.39</v>
+      </c>
+      <c r="V31" s="3">
+        <v>453.11</v>
+      </c>
+      <c r="W31" s="3">
+        <v>478.41</v>
+      </c>
+      <c r="X31" s="3">
+        <v>394.46</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>374.91</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>429.54</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>12636.47</v>
       </c>
     </row>
   </sheetData>
@@ -5544,10 +5713,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A30"/>
+      <selection activeCell="A3" sqref="A3:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5558,7 +5727,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7994,6 +8163,89 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -8018,10 +8270,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A30"/>
+      <selection activeCell="A3" sqref="A3:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8032,7 +8284,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10468,6 +10720,89 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>102.93</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>102.93</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -10492,10 +10827,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:A30"/>
+      <selection activeCell="A3" sqref="A3:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10506,7 +10841,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10615,7 +10950,7 @@
         <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -12873,73 +13208,156 @@
         <v>0.98</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="J30" s="3">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="L30" s="3">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="M30" s="3">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="N30" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="O30" s="3">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="P30" s="3">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="Q30" s="3">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="R30" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="S30" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="T30" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="U30" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="V30" s="3">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="W30" s="3">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="X30" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Y30" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z30" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA30" s="3">
-        <v>0.08</v>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="4">
+        <v>11002006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
